--- a/Kohler.xlsx
+++ b/Kohler.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="390">
   <si>
     <t>Testcase</t>
   </si>
@@ -1231,7 +1231,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="92">
+  <numFmts count="0"/>
+  <fonts count="154">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1788,8 +1789,380 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1870,6 +2243,16 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1887,7 +2270,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2208,6 +2591,196 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="123" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2512,9 +3085,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2549,7 +3122,7 @@
         <v>234</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="116"/>
+      <c r="D3" s="167"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
@@ -2559,7 +3132,7 @@
         <v>235</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="116"/>
+      <c r="D4" s="167"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
@@ -2568,7 +3141,7 @@
       <c r="B5" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="116"/>
+      <c r="D5" s="167"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="16" t="s">
@@ -2577,7 +3150,7 @@
       <c r="B6" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D6" s="116"/>
+      <c r="D6" s="167"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
@@ -2587,7 +3160,7 @@
         <v>238</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="116"/>
+      <c r="D7" s="167"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
@@ -2597,7 +3170,7 @@
         <v>239</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="116"/>
+      <c r="D8" s="167"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
@@ -2607,7 +3180,7 @@
         <v>240</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="116"/>
+      <c r="D9" s="167"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
@@ -2616,7 +3189,7 @@
       <c r="B10" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="167"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="16" t="s">
@@ -2625,7 +3198,7 @@
       <c r="B11" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="116"/>
+      <c r="D11" s="167"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
@@ -2635,7 +3208,7 @@
         <v>243</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="116"/>
+      <c r="D12" s="167"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
@@ -2645,7 +3218,7 @@
         <v>244</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="116"/>
+      <c r="D13" s="167"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
@@ -2655,7 +3228,7 @@
         <v>245</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="116"/>
+      <c r="D14" s="167"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
@@ -2665,7 +3238,7 @@
         <v>246</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="116"/>
+      <c r="D15" s="167"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="16" t="s">
@@ -2674,7 +3247,7 @@
       <c r="B16" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="167"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8" t="s">
@@ -2686,8 +3259,8 @@
       <c r="C17" t="s">
         <v>389</v>
       </c>
-      <c r="D17" s="129" t="s">
-        <v>117</v>
+      <c r="D17" t="s" s="168">
+        <v>11</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="3"/>
@@ -2699,7 +3272,7 @@
       <c r="B18" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D18" s="116"/>
+      <c r="D18" s="167"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -2708,7 +3281,7 @@
       <c r="B19" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="D19" s="116"/>
+      <c r="D19" s="167"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8" t="s">
@@ -2717,7 +3290,7 @@
       <c r="B20" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D20" s="116"/>
+      <c r="D20" s="167"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -2726,7 +3299,7 @@
       <c r="B21" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="116"/>
+      <c r="D21" s="167"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
@@ -2736,7 +3309,7 @@
         <v>255</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="116"/>
+      <c r="D22" s="167"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
@@ -2746,7 +3319,7 @@
         <v>256</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="116"/>
+      <c r="D23" s="167"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8" t="s">
@@ -2793,14 +3366,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75">
@@ -3387,15 +3960,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75">
@@ -3867,14 +4440,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75">
@@ -4355,14 +4928,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75">
@@ -4880,14 +5453,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="12" customFormat="1" ht="33.75">
@@ -5125,14 +5698,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75">
@@ -5529,14 +6102,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75">
@@ -6445,14 +7018,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75">
@@ -6515,10 +7088,10 @@
       <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="120" t="s">
+      <c r="H3" t="s" s="170">
         <v>40</v>
       </c>
-      <c r="I3" s="119" t="s">
+      <c r="I3" t="s" s="169">
         <v>11</v>
       </c>
     </row>
@@ -6541,10 +7114,10 @@
       <c r="G4" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="H4" s="122" t="s">
+      <c r="H4" t="s" s="172">
         <v>40</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="I4" t="s" s="171">
         <v>11</v>
       </c>
     </row>
@@ -6570,10 +7143,10 @@
       <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="H5" t="s" s="174">
         <v>40</v>
       </c>
-      <c r="I5" s="123" t="s">
+      <c r="I5" t="s" s="173">
         <v>11</v>
       </c>
     </row>
@@ -6596,10 +7169,10 @@
       <c r="G6" t="s">
         <v>379</v>
       </c>
-      <c r="H6" s="126" t="s">
+      <c r="H6" t="s" s="176">
         <v>40</v>
       </c>
-      <c r="I6" s="125" t="s">
+      <c r="I6" t="s" s="175">
         <v>11</v>
       </c>
     </row>
@@ -6625,11 +7198,11 @@
       <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="127" t="s">
-        <v>117</v>
+      <c r="H7" t="s" s="178">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s" s="177">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
@@ -6654,8 +7227,12 @@
       <c r="G8" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="118"/>
+      <c r="H8" t="s" s="180">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s" s="179">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -6676,8 +7253,12 @@
       <c r="G9" t="s">
         <v>379</v>
       </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
+      <c r="H9" t="s" s="182">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s" s="181">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="30">
       <c r="A10" t="s">
@@ -6701,8 +7282,12 @@
       <c r="G10" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="118"/>
+      <c r="H10" t="s" s="184">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s" s="183">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
@@ -6726,8 +7311,12 @@
       <c r="G11" t="s">
         <v>308</v>
       </c>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
+      <c r="H11" t="s" s="186">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s" s="185">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
@@ -6751,8 +7340,12 @@
       <c r="G12" t="s">
         <v>312</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="118"/>
+      <c r="H12" t="s" s="188">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s" s="187">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -6773,8 +7366,12 @@
       <c r="G13" t="s">
         <v>379</v>
       </c>
-      <c r="H13" s="117"/>
-      <c r="I13" s="118"/>
+      <c r="H13" t="s" s="190">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s" s="189">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
@@ -6798,8 +7395,12 @@
       <c r="G14" t="s">
         <v>312</v>
       </c>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
+      <c r="H14" t="s" s="192">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s" s="191">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
@@ -6823,8 +7424,12 @@
       <c r="G15" t="s">
         <v>313</v>
       </c>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
+      <c r="H15" t="s" s="194">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s" s="193">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="30">
       <c r="A16" t="s">
@@ -6845,8 +7450,12 @@
       <c r="G16" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
+      <c r="H16" t="s" s="196">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s" s="195">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="B17" t="s">
@@ -6875,8 +7484,12 @@
       <c r="G18" t="s">
         <v>379</v>
       </c>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
+      <c r="H18" t="s" s="198">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s" s="197">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6902,14 +7515,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75">
@@ -7046,14 +7659,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75">
@@ -7602,14 +8215,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75">
@@ -7858,14 +8471,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75">
